--- a/Data/Figure1/Raw photometry/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Raw photometry/ChowMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58E1ACC-9BA6-4B5E-8481-DB7ADEC8192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEEF62F-8751-4733-86DF-7C4F47616E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +414,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +425,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -432,11 +441,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -446,11 +458,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -460,11 +475,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
         <v>33.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -474,11 +492,14 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -488,11 +509,14 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>26.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -502,11 +526,14 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>28.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -516,11 +543,14 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
         <v>29.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -530,11 +560,14 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
         <v>30.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -544,11 +577,14 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
         <v>29.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -558,11 +594,14 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
         <v>31.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -572,11 +611,14 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -586,11 +628,14 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
         <v>31.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -600,7 +645,10 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
         <v>29</v>
       </c>
     </row>
